--- a/data/trans_dic/P25_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece colesterol alto</t>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>14,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>14,91%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,79; 20,22</t>
+          <t>10,29; 21,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,76; 22,29</t>
+          <t>12,11; 23,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 19,88</t>
+          <t>9,48; 20,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 19,64</t>
+          <t>9,25; 20,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 20,65</t>
+          <t>9,88; 19,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,0; 21,45</t>
+          <t>8,27; 17,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 18,87</t>
+          <t>11,2; 22,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,94; 20,0</t>
+          <t>20,66; 34,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,23; 19,23</t>
+          <t>11,6; 19,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,24; 18,91</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 19,58</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 25,85</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 29,62</t>
+          <t>10,8; 23,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,65; 22,41</t>
+          <t>8,21; 20,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,95; 20,07</t>
+          <t>7,56; 18,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,71</t>
+          <t>13,52; 27,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 16,93</t>
+          <t>3,71; 11,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 16,15</t>
+          <t>7,26; 16,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 18,77</t>
+          <t>5,84; 15,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 18,1</t>
+          <t>8,63; 20,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 16,38</t>
+          <t>8,05; 15,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 16,91</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,7; 14,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 22,04</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 17,39</t>
+          <t>0,0; 25,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 17,61</t>
+          <t>0,0; 23,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 19,19</t>
+          <t>4,07; 33,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 20,87</t>
+          <t>0,0; 21,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 25,95</t>
+          <t>2,4; 19,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 14,66</t>
+          <t>0,0; 22,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,84</t>
+          <t>0,0; 8,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 18,87</t>
+          <t>1,84; 16,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 10,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 14,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 17,72</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>12,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 20,74</t>
+          <t>11,31; 19,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 18,67</t>
+          <t>10,8; 18,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,94; 16,74</t>
+          <t>9,41; 16,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,63</t>
+          <t>12,08; 21,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 17,24</t>
+          <t>7,76; 13,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 17,97</t>
+          <t>8,73; 15,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,79</t>
+          <t>9,6; 15,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 16,89</t>
+          <t>14,77; 24,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,52</t>
+          <t>10,5; 15,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 15,61</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 14,85</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 20,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece colesterol alto (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>66620</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>64659</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55714</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>73640</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>72570</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51922</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>65278</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>150327</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>139190</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>116581</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>120993</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>223967</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>43977; 91295</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43680; 85408</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36114; 78963</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>47544; 104174</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50026; 100056</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>34545; 72403</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45472; 89686</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>116442; 192315</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108273; 178116</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>87451; 147148</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>94102; 154036</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>172321; 278527</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59618</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42167</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37700</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>81458</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29111</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38964</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32199</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60237</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>88729</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>81131</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>69898</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>141696</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38825; 84619</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25762; 63678</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24196; 59138</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>55765; 113818</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15798; 48976</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24564; 57311</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19554; 50416</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37380; 88718</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>63187; 121967</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>59014; 110254</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>50432; 97966</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>107968; 186344</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6877</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5339</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>16789</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6234</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5502</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1876</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13930</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6234</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10841</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18665</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 25642</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 20057</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4862; 40056</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21035</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1953; 16212</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18275</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 8920</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3687; 33509</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1880; 17048</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3004; 24597</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7302; 40500</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>133115</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106826</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>98753</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>171888</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>108733</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>97121</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>102979</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>212441</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>241848</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>203947</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>201732</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>384328</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>100529; 169554</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>81427; 138287</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>73977; 128909</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>126266; 219854</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>79980; 142001</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>73125; 126959</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>78885; 130554</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>163396; 271007</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>201402; 288333</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>167152; 248391</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>167095; 238872</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>320949; 449075</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
